--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1885,10 +1885,14 @@
           <t>Balance of TradeNOV</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C$-0.32B</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>C$-0.92B</t>
+          <t>C$-0.54B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1921,10 +1925,14 @@
           <t>ExportsNOV</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>C$66.11B</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
+          <t>C$64.68B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1953,10 +1961,14 @@
           <t>ImportsNOV</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>C$66.43B</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
+          <t>C$65.23B</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -1985,10 +1997,14 @@
           <t>Balance of TradeNOV</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$-78.2B</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
+          <t>$-73.6B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2021,7 +2037,11 @@
           <t>ExportsNOV</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$273.4B</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>$265.7B</t>
@@ -2259,7 +2279,11 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>52</t>
@@ -2291,7 +2315,11 @@
           <t>53.7</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>54.1</t>
@@ -2323,7 +2351,11 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>57.5</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -3861,7 +3893,11 @@
           <t>-1.178M</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>2</v>
@@ -3889,7 +3925,11 @@
           <t>7.717M</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>2</v>
@@ -4001,7 +4041,11 @@
           <t>6.406M</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>3</v>
@@ -4283,7 +4327,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>$12B</t>
+          <t>$10.5B</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4376,11 +4420,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
@@ -4400,15 +4448,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
@@ -15060,21 +15104,25 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
@@ -15082,6 +15130,194 @@
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Building Permits PrelDEC</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>1.5M</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Housing Starts MoMDEC</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -2517,7 +2517,11 @@
           <t>42-Day Bill Auction</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>4.280%</t>
@@ -2693,138 +2697,142 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesDEC</t>
+          <t>Motorbike Sales YoYDEC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
+          <t>-10.3%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYDEC</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-10.3%</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceDEC</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>36.4</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>36.6</t>
-        </is>
-      </c>
+          <t>$65.86B</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>$ 64.0B</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Factory Orders MoMNOV</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>$65.86B</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>$ 64.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2840,7 +2848,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Factory Orders MoMNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2851,12 +2859,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2876,23 +2884,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2902,33 +2910,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>€-7.7B</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>€-7B</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>€-6.5B</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2948,23 +2956,23 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>€-7.7B</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>€-7B</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>€-6.5B</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2984,27 +2992,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+          <t>€-2.6B</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>€-2.0B</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3020,21 +3024,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>€-2.6B</t>
+          <t>€48.7B</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>€-2.0B</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>3</v>
       </c>
@@ -3052,13 +3052,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>€48.7B</t>
+          <t>€56.4B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3070,29 +3070,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Consumer Confidence FinalDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>€56.4B</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+          <t>-13.7</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3108,23 +3116,23 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Consumer Confidence FinalDEC</t>
+          <t>Economic SentimentDEC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-13.7</t>
+          <t>95.8</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>95.6</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>95.5</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3144,27 +3152,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Economic SentimentDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>95.6</t>
-        </is>
-      </c>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>95.5</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -3180,19 +3184,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Industrial SentimentDEC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>17.7</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>-11.1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-11.7</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>-11.3</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3212,23 +3220,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Industrial SentimentDEC</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-11.7</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3248,23 +3256,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-3.2%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3284,23 +3292,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>Selling Price ExpectationsDEC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3320,19 +3324,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Selling Price ExpectationsDEC</t>
+          <t>Services SentimentDEC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3347,30 +3355,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Services SentimentDEC</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>4.348%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>3</v>
       </c>
@@ -3388,17 +3388,21 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>BBA Mortgage RateDEC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4.348%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
@@ -3406,31 +3410,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
         <v>3</v>
       </c>
@@ -3438,23 +3438,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>2.798%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3476,13 +3476,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.798%</t>
+          <t>2.632%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -3494,23 +3494,23 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>M3 Money Supply YoYDEC/27</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.632%</t>
+          <t>10.7%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3522,29 +3522,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC/27</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>10.7%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3560,27 +3568,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3591,32 +3599,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3632,19 +3632,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -3660,13 +3660,13 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -3688,13 +3688,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -3716,13 +3716,13 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -3734,7 +3734,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3744,25 +3744,33 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>136.7</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3772,25 +3780,13 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>2</v>
       </c>
@@ -3808,13 +3804,25 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>218K</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="H99" t="n">
         <v>2</v>
       </c>
@@ -3832,27 +3840,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>211K</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>218K</t>
+          <t>1870K</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -3868,23 +3876,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3894,31 +3898,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Treasury Cash BalanceDEC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>TRY-62.220B</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>3</v>
       </c>
@@ -3926,29 +3926,33 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceDEC</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TRY-62.220B</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3964,18 +3968,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>-0.25M</t>
+          <t>0.5M</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3996,23 +4000,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>7.717M</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -4028,13 +4028,13 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -4056,13 +4056,13 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -4084,16 +4084,20 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.099M</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>3</v>
@@ -4112,20 +4116,16 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6.406M</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
         <v>3</v>
@@ -4144,13 +4144,13 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4172,13 +4172,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4190,7 +4190,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4200,13 +4200,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4218,23 +4218,23 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>3.029%</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4251,18 +4251,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3.029%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -4274,7 +4274,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4284,13 +4284,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -4302,27 +4302,31 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H116" t="n">
         <v>3</v>
       </c>
@@ -4335,34 +4339,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4372,47 +4368,59 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>$10.5B</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>Average Cash Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>$19.24B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$10.5B</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>$14.0B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4432,23 +4440,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYNOV</t>
+          <t>Overtime Pay YoYNOV</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4458,7 +4462,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4468,21 +4472,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYNOV</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>¥-919.2B</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
         <v>3</v>
       </c>
@@ -4500,15 +4500,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
@@ -4528,7 +4524,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4552,11 +4548,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
@@ -4566,29 +4566,37 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+          <t>A$5.953B</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>A$5.750B</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>A$6B</t>
+        </is>
+      </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4604,27 +4612,27 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A$5.953B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>A$5.750B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>A$6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4640,27 +4648,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports MoMNOV</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4676,13 +4676,13 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Exports MoMNOV</t>
+          <t>Imports MoMNOV</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -4694,27 +4694,31 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Imports MoMNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>125.9</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="H129" t="n">
         <v>3</v>
       </c>
@@ -4722,31 +4726,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>125.9</t>
+          <t>2.287%</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
         <v>3</v>
       </c>
@@ -4764,13 +4764,13 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2.287%</t>
+          <t>0.2952%</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -4780,25 +4780,21 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
+      <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.2952%</t>
+          <t>€275.572B</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -4811,22 +4807,26 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>ABSA Manufacturing PMIDEC</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>€275.572B</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>51.8</t>
+        </is>
+      </c>
       <c r="H133" t="n">
         <v>3</v>
       </c>
@@ -4835,26 +4835,22 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIDEC</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
         <v>3</v>
       </c>
@@ -4868,13 +4864,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -4892,17 +4888,25 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="H136" t="n">
         <v>3</v>
       </c>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H483"/>
+  <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,7 +2549,11 @@
           <t>10-Year Note Auction</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>4.235%</t>
@@ -15550,26 +15554,78 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr"/>
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4476,15 +4476,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
@@ -4504,11 +4500,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
@@ -4528,11 +4528,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
@@ -4552,15 +4556,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
@@ -15606,26 +15606,116 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -2581,7 +2581,11 @@
           <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>-1.442M</t>
@@ -4476,11 +4480,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
@@ -4500,15 +4508,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
@@ -4528,15 +4532,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
@@ -4556,11 +4556,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
@@ -9652,7 +9656,11 @@
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-17.xlsx
@@ -4480,15 +4480,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
@@ -4508,11 +4504,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
@@ -4532,11 +4532,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
@@ -4556,15 +4560,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
